--- a/Thesis Report/Charts/Questionnaire.xlsx
+++ b/Thesis Report/Charts/Questionnaire.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yhl125/Documents/uofglasgow/MSc Project/MSc Project/Thesis Report/Charts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F44DC5-483F-614C-AB6C-D40967BE5A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A73C92-221B-9E4E-B450-DE75D18F8D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="520" yWindow="460" windowWidth="28240" windowHeight="16020" xr2:uid="{0549ADF3-E83F-5141-8C54-9A4BDDA01BD4}"/>
+    <workbookView xWindow="10520" yWindow="860" windowWidth="18820" windowHeight="15480" xr2:uid="{0549ADF3-E83F-5141-8C54-9A4BDDA01BD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,40 +69,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">I think that I would like to use this system frequently </t>
-  </si>
-  <si>
-    <t>Questionnaire</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">I do not think the system unnecessarily complex </t>
-  </si>
-  <si>
-    <t xml:space="preserve">I think the system is easy to use </t>
-  </si>
-  <si>
-    <t xml:space="preserve">I do not think that I would need the support of a technical person to be able to use this system </t>
-  </si>
-  <si>
-    <t xml:space="preserve">I think the various functions in this system are well integrated </t>
-  </si>
-  <si>
-    <t xml:space="preserve">I think there is no inconsistency in this system </t>
-  </si>
-  <si>
-    <t xml:space="preserve">I think that most people would learn to use this system very quickly </t>
-  </si>
-  <si>
-    <t xml:space="preserve">I do not think the system very cumbersome to use </t>
-  </si>
-  <si>
-    <t xml:space="preserve">I feel very confident using the system </t>
-  </si>
-  <si>
-    <t xml:space="preserve">I do not need to learn a lot of things before I could get going with this system </t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">I feel that the </t>
     </r>
@@ -255,6 +221,49 @@
   </si>
   <si>
     <t>Average Score</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>I think that I would like to use this system frequently.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>I do not think the system unnecessarily complex.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>I think the system is easy to use.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>I think that I would need the support of a technical person to be able to use this system.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>I think the various functions in this system are well integrated.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>I thought there was too much inconsistency in this system.</t>
+  </si>
+  <si>
+    <t>I would imagine that most people would learn to use this system very quickly.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>I found the system very cumbersome to use.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>I felt very confident using the system.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>I needed to learn a lot of things before I could get going with this system.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Questionnaire 1 - System Usability Scale</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -399,25 +408,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -736,8 +745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A0BAF4C-3FF2-6646-8296-CC81B43C823D}">
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B21" zoomScale="116" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="B18" zoomScale="116" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -751,11 +760,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="34" customHeight="1">
-      <c r="A1" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
+      <c r="A1" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
     </row>
@@ -777,7 +786,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="4"/>
@@ -788,7 +797,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="4"/>
@@ -799,7 +808,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="4"/>
@@ -810,7 +819,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="4"/>
@@ -821,7 +830,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="4"/>
@@ -832,7 +841,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="4"/>
@@ -843,7 +852,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="4"/>
@@ -854,7 +863,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="4"/>
@@ -865,7 +874,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="4"/>
@@ -876,7 +885,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="4"/>
@@ -886,37 +895,37 @@
       <c r="A13" s="8">
         <v>11</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="10"/>
+      <c r="B13" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="15"/>
     </row>
     <row r="14" spans="1:5" ht="51" customHeight="1">
       <c r="A14" s="5">
         <v>12</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="10"/>
+      <c r="B14" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="15"/>
     </row>
     <row r="15" spans="1:5" ht="51" customHeight="1">
       <c r="A15" s="8">
         <v>13</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="10"/>
+      <c r="B15" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="15"/>
     </row>
     <row r="16" spans="1:5" ht="51" customHeight="1">
       <c r="A16" s="5">
         <v>14</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="10"/>
+      <c r="B16" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="15"/>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="1" t="s">
@@ -929,10 +938,10 @@
       </c>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="9"/>
+      <c r="C28" s="14"/>
     </row>
     <row r="29" spans="2:6">
       <c r="B29" s="2"/>
@@ -940,13 +949,13 @@
     <row r="31" spans="2:6">
       <c r="B31" s="2"/>
       <c r="D31" s="13" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E31" s="13" t="s">
         <v>3</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="2:6">
@@ -955,123 +964,129 @@
       <c r="F32" s="13"/>
     </row>
     <row r="33" spans="2:6">
-      <c r="D33" s="11">
+      <c r="D33" s="9">
         <v>1</v>
       </c>
-      <c r="E33" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F33" s="15"/>
+      <c r="E33" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="11"/>
     </row>
     <row r="34" spans="2:6">
       <c r="B34" s="2"/>
-      <c r="D34" s="11">
+      <c r="D34" s="9">
         <v>2</v>
       </c>
-      <c r="E34" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F34" s="15"/>
+      <c r="E34" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="11"/>
     </row>
     <row r="35" spans="2:6">
-      <c r="D35" s="11">
+      <c r="D35" s="9">
         <v>3</v>
       </c>
-      <c r="E35" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F35" s="15"/>
+      <c r="E35" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="11"/>
     </row>
     <row r="36" spans="2:6" ht="30">
       <c r="B36" s="2"/>
-      <c r="D36" s="11">
+      <c r="D36" s="9">
         <v>4</v>
       </c>
-      <c r="E36" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F36" s="15"/>
+      <c r="E36" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="11"/>
     </row>
     <row r="37" spans="2:6">
-      <c r="D37" s="11">
+      <c r="D37" s="9">
         <v>5</v>
       </c>
-      <c r="E37" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="F37" s="15"/>
+      <c r="E37" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="11"/>
     </row>
     <row r="38" spans="2:6">
       <c r="B38" s="2"/>
-      <c r="D38" s="11">
+      <c r="D38" s="9">
         <v>6</v>
       </c>
-      <c r="E38" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F38" s="15"/>
+      <c r="E38" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38" s="11"/>
     </row>
     <row r="39" spans="2:6">
-      <c r="D39" s="11">
+      <c r="D39" s="9">
         <v>7</v>
       </c>
-      <c r="E39" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F39" s="15"/>
+      <c r="E39" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" s="11"/>
     </row>
     <row r="40" spans="2:6">
       <c r="B40" s="2"/>
-      <c r="D40" s="11">
+      <c r="D40" s="9">
         <v>8</v>
       </c>
-      <c r="E40" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F40" s="15"/>
+      <c r="E40" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F40" s="11"/>
     </row>
     <row r="41" spans="2:6">
-      <c r="D41" s="11">
+      <c r="D41" s="9">
         <v>9</v>
       </c>
-      <c r="E41" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F41" s="15"/>
+      <c r="E41" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F41" s="11"/>
     </row>
     <row r="42" spans="2:6" ht="30">
       <c r="B42" s="2"/>
-      <c r="D42" s="11">
+      <c r="D42" s="9">
         <v>10</v>
       </c>
-      <c r="E42" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F42" s="15"/>
+      <c r="E42" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" s="11"/>
     </row>
     <row r="43" spans="2:6" ht="50" customHeight="1">
-      <c r="D43" s="11"/>
+      <c r="D43" s="9"/>
       <c r="E43" s="12"/>
       <c r="F43" s="12"/>
     </row>
     <row r="44" spans="2:6" ht="50" customHeight="1">
       <c r="B44" s="2"/>
-      <c r="D44" s="11"/>
+      <c r="D44" s="9"/>
       <c r="E44" s="12"/>
       <c r="F44" s="12"/>
     </row>
     <row r="45" spans="2:6" ht="50" customHeight="1">
-      <c r="D45" s="11"/>
+      <c r="D45" s="9"/>
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
     </row>
     <row r="46" spans="2:6" ht="50" customHeight="1">
-      <c r="D46" s="11"/>
+      <c r="D46" s="9"/>
       <c r="E46" s="12"/>
       <c r="F46" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
     <mergeCell ref="E46:F46"/>
     <mergeCell ref="F31:F32"/>
     <mergeCell ref="E44:F44"/>
@@ -1079,12 +1094,6 @@
     <mergeCell ref="D31:D32"/>
     <mergeCell ref="E31:E32"/>
     <mergeCell ref="E43:F43"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
